--- a/StructureDefinition-profile-CommunicationRequest.xlsx
+++ b/StructureDefinition-profile-CommunicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="371">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6491202-06:00</t>
+    <t>2026-02-09T22:05:43.0321754-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,33 +419,60 @@
     <t>CommunicationRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.extension:intent</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CommunicationRequest.intent|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CommunicationRequest.intent from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority/intentionality associated with the CommunicationRequest and where the request fits into the workflow chain.</t>
+  </si>
+  <si>
+    <t>Element `CommunicationRequest.intent` is will have a context of CommunicationRequest based on following the parent source element upwards and mapping to `CommunicationRequest`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -453,6 +480,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -798,20 +828,13 @@
     <t>CommunicationRequest.payload.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.payload.extension:payload</t>
+  </si>
+  <si>
+    <t>payload</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CommunicationRequest.payload|0.0.1-snapshot-3}
@@ -821,8 +844,7 @@
     <t>Cross-version extension for CommunicationRequest.payload from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `CommunicationRequest.payload` is mapped to FHIR R4 element `CommunicationRequest.payload`.</t>
   </si>
   <si>
     <t>CommunicationRequest.payload.modifierExtension</t>
@@ -958,11 +980,24 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CommunicationRequest.recipient|0.0.1-snapshot-3}
+    <t>CommunicationRequest.recipient.extension:recipient</t>
+  </si>
+  <si>
+    <t>recipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
     <t>Cross-version extension for CommunicationRequest.recipient from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Endpoint in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CommunicationRequest.recipient` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `CommunicationRequest.recipient` is mapped to FHIR R4 element `CommunicationRequest.recipient`.</t>
   </si>
   <si>
     <t>CommunicationRequest.recipient.reference</t>
@@ -1064,11 +1099,17 @@
     <t>CommunicationRequest.sender.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CommunicationRequest.informationProvider|0.0.1-snapshot-3}
-</t>
+    <t>CommunicationRequest.sender.extension:informationProvider</t>
+  </si>
+  <si>
+    <t>informationProvider</t>
   </si>
   <si>
     <t>Cross-version extension for CommunicationRequest.informationProvider from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CommunicationRequest.informationProvider` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `CommunicationRequest.informationProvider` is mapped to FHIR R4 element `CommunicationRequest.sender`.</t>
   </si>
   <si>
     <t>CommunicationRequest.sender.reference</t>
@@ -1446,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1455,9 +1496,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.37890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2396,11 +2437,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -2415,17 +2456,15 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2462,16 +2501,14 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2495,7 +2532,7 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -2503,18 +2540,20 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2526,20 +2565,18 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2587,7 +2624,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2596,7 +2633,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -2608,19 +2645,19 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2633,25 +2670,25 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2700,7 +2737,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2712,28 +2749,28 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2760,9 +2797,11 @@
       <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2811,7 +2850,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2826,25 +2865,25 @@
         <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2863,17 +2902,15 @@
         <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>165</v>
       </c>
@@ -2924,7 +2961,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2964,7 +3001,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2976,18 +3013,20 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3041,7 +3080,7 @@
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
@@ -3050,29 +3089,29 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3081,21 +3120,23 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3120,13 +3161,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3144,10 +3185,10 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3159,29 +3200,29 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
@@ -3190,23 +3231,21 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3231,14 +3270,14 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3255,10 +3294,10 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>86</v>
@@ -3270,32 +3309,32 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3307,16 +3346,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3342,13 +3381,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3366,13 +3405,13 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
@@ -3381,21 +3420,21 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3406,7 +3445,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3415,25 +3454,25 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q18" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3453,13 +3492,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3477,13 +3516,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3492,10 +3531,10 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3503,14 +3542,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3523,57 +3562,55 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Z19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="R19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3590,7 +3627,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3608,7 +3645,7 @@
         <v>215</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3616,46 +3653,50 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="R20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3675,13 +3716,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3699,13 +3740,13 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
@@ -3714,7 +3755,7 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3725,21 +3766,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3751,13 +3792,13 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3784,13 +3825,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -3808,13 +3849,13 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
@@ -3823,10 +3864,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3834,21 +3875,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3860,17 +3901,15 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3919,13 +3958,13 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
@@ -3934,10 +3973,10 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3945,10 +3984,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3959,7 +3998,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3968,19 +4007,19 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4030,13 +4069,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -4045,10 +4084,10 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4056,10 +4095,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4070,7 +4109,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4079,18 +4118,20 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4139,13 +4180,13 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
@@ -4154,10 +4195,10 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4165,10 +4206,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4179,7 +4220,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4191,13 +4232,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4248,19 +4289,19 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4269,15 +4310,15 @@
         <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4285,11 +4326,11 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4300,13 +4341,13 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4345,29 +4386,31 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4376,15 +4419,15 @@
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4407,13 +4450,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4452,19 +4495,17 @@
         <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4473,7 +4514,7 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>137</v>
@@ -4490,14 +4531,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="D28" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4510,26 +4553,24 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4577,7 +4618,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4586,7 +4627,7 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>137</v>
@@ -4598,47 +4639,51 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4686,44 +4731,44 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -4735,16 +4780,16 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4795,10 +4840,10 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>86</v>
@@ -4810,10 +4855,10 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5034,26 +5079,26 @@
         <v>289</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5062,7 +5107,7 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>292</v>
@@ -5122,13 +5167,13 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
@@ -5143,15 +5188,15 @@
         <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5162,7 +5207,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5174,13 +5219,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5231,36 +5276,36 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5268,11 +5313,11 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5283,13 +5328,13 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5328,31 +5373,31 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5361,15 +5406,15 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5392,13 +5437,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>132</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
+        <v>133</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5437,19 +5482,19 @@
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5475,12 +5520,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5498,19 +5545,19 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5560,19 +5607,19 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5581,15 +5628,15 @@
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5612,16 +5659,16 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5647,13 +5694,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5671,7 +5718,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5680,7 +5727,7 @@
         <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>98</v>
@@ -5697,10 +5744,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5723,16 +5770,16 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5758,13 +5805,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -5782,7 +5829,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5803,15 +5850,15 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>321</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5834,16 +5881,16 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5893,7 +5940,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5914,15 +5961,15 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>129</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5945,15 +5992,17 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6002,7 +6051,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6017,21 +6066,21 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6051,16 +6100,16 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>245</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6111,7 +6160,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6123,24 +6172,24 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6148,11 +6197,11 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6163,13 +6212,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6208,31 +6257,31 @@
         <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6241,15 +6290,15 @@
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6272,13 +6321,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>334</v>
+        <v>132</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>330</v>
+        <v>133</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6317,19 +6366,19 @@
         <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6355,12 +6404,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6378,19 +6429,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6440,19 +6491,19 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -6461,15 +6512,15 @@
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6492,16 +6543,16 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6527,13 +6578,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6551,7 +6602,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6560,7 +6611,7 @@
         <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>98</v>
@@ -6577,10 +6628,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6603,16 +6654,16 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6638,13 +6689,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -6662,7 +6713,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6683,15 +6734,15 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>321</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6714,16 +6765,16 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6773,7 +6824,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6794,15 +6845,15 @@
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>129</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6813,7 +6864,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -6825,16 +6876,16 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6860,13 +6911,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>344</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -6884,13 +6935,13 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
@@ -6899,21 +6950,21 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>347</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6936,15 +6987,17 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>349</v>
+        <v>194</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -6969,13 +7022,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -6993,7 +7046,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7008,21 +7061,21 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7042,16 +7095,16 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7102,7 +7155,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7117,13 +7170,122 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>268</v>
+        <v>364</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-CommunicationRequest.xlsx
+++ b/StructureDefinition-profile-CommunicationRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0321754-06:00</t>
+    <t>2026-02-17T14:42:26.7655414-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Indicates the level of authority/intentionality associated with the CommunicationRequest and where the request fits into the workflow chain.</t>
   </si>
   <si>
-    <t>Element `CommunicationRequest.intent` is will have a context of CommunicationRequest based on following the parent source element upwards and mapping to `CommunicationRequest`.</t>
+    <t>Element `CommunicationRequest.intent` has a context of CommunicationRequest based on following the parent source element upwards and mapping to `CommunicationRequest`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -844,7 +844,7 @@
     <t>Cross-version extension for CommunicationRequest.payload from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `CommunicationRequest.payload` is mapped to FHIR R4 element `CommunicationRequest.payload`.</t>
+    <t>Element `CommunicationRequest.payload` has is mapped to FHIR R4 element `CommunicationRequest.payload`, but has no comparisons.</t>
   </si>
   <si>
     <t>CommunicationRequest.payload.modifierExtension</t>
@@ -997,7 +997,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CommunicationRequest.recipient` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `CommunicationRequest.recipient` is mapped to FHIR R4 element `CommunicationRequest.recipient`.</t>
+Element `CommunicationRequest.recipient` has is mapped to FHIR R4 element `CommunicationRequest.recipient`, but has no comparisons.</t>
   </si>
   <si>
     <t>CommunicationRequest.recipient.reference</t>
@@ -1109,7 +1109,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CommunicationRequest.informationProvider` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `CommunicationRequest.informationProvider` is mapped to FHIR R4 element `CommunicationRequest.sender`.</t>
+Element `CommunicationRequest.informationProvider` has is mapped to FHIR R4 element `CommunicationRequest.sender`, but has no comparisons.</t>
   </si>
   <si>
     <t>CommunicationRequest.sender.reference</t>

--- a/StructureDefinition-profile-CommunicationRequest.xlsx
+++ b/StructureDefinition-profile-CommunicationRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7655414-06:00</t>
+    <t>2026-02-20T11:59:20.7596949-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CommunicationRequest|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CommunicationRequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>intent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CommunicationRequest.intent|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CommunicationRequest.intent}
 </t>
   </si>
   <si>
@@ -730,7 +730,7 @@
     <t>Codes for communication mediums such as phone, fax, email, in person, etc.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationMode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationMode</t>
   </si>
   <si>
     <t>CommunicationRequest.subject</t>
@@ -837,7 +837,7 @@
     <t>payload</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CommunicationRequest.payload|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CommunicationRequest.payload}
 </t>
   </si>
   <si>
@@ -986,7 +986,7 @@
     <t>recipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -1139,7 +1139,7 @@
     <t>Codes for describing reasons for the occurrence of a communication.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActReason|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActReason</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1521,7 +1521,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.3671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.25" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.17578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-CommunicationRequest.xlsx
+++ b/StructureDefinition-profile-CommunicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="327">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7596949-06:00</t>
+    <t>2026-02-21T13:36:54.164998-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CommunicationRequest</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CommunicationRequest|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>intent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CommunicationRequest.intent}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CommunicationRequest.intent|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -730,7 +730,7 @@
     <t>Codes for communication mediums such as phone, fax, email, in person, etc.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationMode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationMode|3.0.0</t>
   </si>
   <si>
     <t>CommunicationRequest.subject</t>
@@ -837,14 +837,14 @@
     <t>payload</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CommunicationRequest.payload}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CommunicationRequest.payload|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for CommunicationRequest.payload from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `CommunicationRequest.payload` has is mapped to FHIR R4 element `CommunicationRequest.payload`, but has no comparisons.</t>
+    <t>Element `CommunicationRequest.payload` is mapped to FHIR R4 element `CommunicationRequest.payload` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>CommunicationRequest.payload.modifierExtension</t>
@@ -971,115 +971,6 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>CommunicationRequest.recipient.id</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.recipient.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.recipient.extension:recipient</t>
-  </si>
-  <si>
-    <t>recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CommunicationRequest.recipient from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Endpoint in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CommunicationRequest.recipient` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `CommunicationRequest.recipient` has is mapped to FHIR R4 element `CommunicationRequest.recipient`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.recipient.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.recipient.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.recipient.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.recipient.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>CommunicationRequest.sender</t>
   </si>
   <si>
@@ -1093,37 +984,6 @@
     <t>The entity (e.g. person, organization, clinical information system, or device) which is to be the source of the communication.</t>
   </si>
   <si>
-    <t>CommunicationRequest.sender.id</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.sender.extension</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.sender.extension:informationProvider</t>
-  </si>
-  <si>
-    <t>informationProvider</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CommunicationRequest.informationProvider from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CommunicationRequest.informationProvider` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `CommunicationRequest.informationProvider` has is mapped to FHIR R4 element `CommunicationRequest.sender`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.sender.reference</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.sender.type</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.sender.identifier</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.sender.display</t>
-  </si>
-  <si>
     <t>CommunicationRequest.reasonCode</t>
   </si>
   <si>
@@ -1139,7 +999,7 @@
     <t>Codes for describing reasons for the occurrence of a communication.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActReason</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActReason|3.0.0</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1487,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1496,9 +1356,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.25390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1521,10 +1381,10 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.3671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.17578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.25" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.875" customWidth="true" bestFit="true" hidden="true"/>
@@ -5325,16 +5185,16 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5385,7 +5245,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5397,24 +5257,24 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5434,18 +5294,20 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5470,31 +5332,31 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5506,28 +5368,26 @@
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5536,7 +5396,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5545,20 +5405,18 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5607,7 +5465,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5619,24 +5477,24 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5647,7 +5505,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5656,20 +5514,18 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5718,1574 +5574,28 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF39" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
